--- a/importationFileUpload/Template-TGGT-3-Fr.xlsx
+++ b/importationFileUpload/Template-TGGT-3-Fr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Houda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moknial01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D2D81C-3F2B-474D-BC50-D07DCA3E9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19905" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19905" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Francais" sheetId="5" r:id="rId1"/>
@@ -1504,9 +1503,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1726,7 +1725,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyFont="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyFont="0">
       <alignment horizontal="center"/>
@@ -1916,19 +1915,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Currency" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Currency 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency" xfId="6"/>
+    <cellStyle name="Currency 2" xfId="10"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2" xfId="7"/>
+    <cellStyle name="Normal 2 2" xfId="8"/>
+    <cellStyle name="Normal 2 3" xfId="2"/>
+    <cellStyle name="Normal 2 4" xfId="11"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="RowLevel_4" xfId="1" builtinId="1" iLevel="3"/>
-    <cellStyle name="Style 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Style 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Style 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Style 6" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Style 1" xfId="3"/>
+    <cellStyle name="Style 2" xfId="9"/>
+    <cellStyle name="Style 2 2" xfId="12"/>
+    <cellStyle name="Style 6" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2205,12 +2204,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23660,7 +23659,7 @@
     </row>
     <row r="584" spans="1:29" ht="15.75" thickTop="1"/>
   </sheetData>
-  <autoFilter ref="A1:AC92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC92"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
